--- a/biology/Biochimie/Faustino_Cordón/Faustino_Cordón.xlsx
+++ b/biology/Biochimie/Faustino_Cordón/Faustino_Cordón.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faustino_Cord%C3%B3n</t>
+          <t>Faustino_Cordón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faustino Cordón, est un biochimiste espagnol né le 22 janvier 1909 à Madrid et mort le 22 décembre 1999. Il a théorisé la notion d'émergence sur le champ biologique et l'évolution du métabolisme cellulaire. Ses travaux ont été retenus par Patrick Tort puis ont été développés par Chomin Cunchillos et Guillaume Lecointre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faustino_Cord%C3%B3n</t>
+          <t>Faustino_Cordón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Faustino Cordón né en 1909 à Madrid. 
 Il a étudié la médecine à l'Université Complutense, où il a réussi la maîtrise en 1931. Après la guerre civile espagnole, il prépare une chaire en chimie organique. Quand  celle-ci pris fin, Faustino Cordón s'écarte de l'enseignement pour développer sa carrière professionnelle dans l'industrie privée consacré à l'investigation expérimentale.
